--- a/medicine/Enfance/Christian_Vilà/Christian_Vilà.xlsx
+++ b/medicine/Enfance/Christian_Vilà/Christian_Vilà.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christian_Vil%C3%A0</t>
+          <t>Christian_Vilà</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Vilà, né le 1er juin 1950 à Soisy-sous-Montmorency dans le Val-d'Oise[1], est un écrivain français des littératures de l'imaginaire et un scénariste de bande dessinée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Vilà, né le 1er juin 1950 à Soisy-sous-Montmorency dans le Val-d'Oise, est un écrivain français des littératures de l'imaginaire et un scénariste de bande dessinée.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christian_Vil%C3%A0</t>
+          <t>Christian_Vilà</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christian Vilà vit à Paris et publie depuis 1973[2]. Autodidacte, il commence par la science-fiction, avant de se diversifier. Responsable avec Joël Houssin de l'anthologie Banlieues Rouges (1976), il a publié aussi dans les domaines du roman noir, du gore, de la fantasy, du fantastique, du roman jeunesse, des scénarios de BD ou de séries télévisées et de la science-fiction. Son premier roman, Sang futur (1977, réédition 2008) est devenu un livre culte du mouvement punk[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christian Vilà vit à Paris et publie depuis 1973. Autodidacte, il commence par la science-fiction, avant de se diversifier. Responsable avec Joël Houssin de l'anthologie Banlieues Rouges (1976), il a publié aussi dans les domaines du roman noir, du gore, de la fantasy, du fantastique, du roman jeunesse, des scénarios de BD ou de séries télévisées et de la science-fiction. Son premier roman, Sang futur (1977, réédition 2008) est devenu un livre culte du mouvement punk.
 Il est également président du Syndicat des écrivains de langue française (SELF) depuis 2011.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christian_Vil%C3%A0</t>
+          <t>Christian_Vilà</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Sang futur, Le Dernier Terrain Vague, 1977 ; rééd. Moisson Rouge, 2008  (ISBN 978-2-914833-77-6)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sang futur, Le Dernier Terrain Vague, 1977 ; rééd. Moisson Rouge, 2008  (ISBN 978-2-914833-77-6)
 Clip de sang, Fleuve noir, 1986, coll. Gore  (ISBN 2-265-03181-X) ; réédition au format numérique, ActuSF, 2014
 L'Océan cannibale, Fleuve noir, 1986, coll. Gore  (ISBN 2-265-03400-2) ; réédition au format numérique, ActuSF, 2014
 La Mort noire, Fleuve noir, 1988, coll. Gore  (ISBN 2-265-03798-2) ; réédition au format numérique, ActuSF, 2014
@@ -559,23 +578,125 @@
 Les Mystères de Saint-Pétersbourg, Bragelonne, 2003  (ISBN 2-91437-041-5)
 La Grande alliance, Mango Jeunesse, 2010  (ISBN 978-2-7404-2618-0)
 Moi Tarzan toi Jane, Hugo et Compagnie, 2011  (ISBN 2-75560-775-0)
-MurderProd, Trash éd., 2014, coll. Trash n° 7  (ISBN 979-10-92671-06-3) (sous le pseudonyme de Kriss Vilà)
-Bande dessinée
-Huitième continent, scénario de Christian Vilà, dessins de Stéphane Collignon, 12 bis
+MurderProd, Trash éd., 2014, coll. Trash n° 7  (ISBN 979-10-92671-06-3) (sous le pseudonyme de Kriss Vilà)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Christian_Vilà</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Vil%C3%A0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Huitième continent, scénario de Christian Vilà, dessins de Stéphane Collignon, 12 bis
 Le Cauchemar d'Edgar Allan Poe, 2011  (ISBN 978-2-356-48233-4)
-Neurotrans, scénario de Christian Vilà, dessins de Stéphane Collignon, Albin Michel[4]
+Neurotrans, scénario de Christian Vilà, dessins de Stéphane Collignon, Albin Michel
 La Mort n'est pas éternelle, 2004  (ISBN 2-226-14409-9)
 Êtes-vous vivant ou êtes-vous mort ?, 2007  (ISBN 978-2-226-17559-5)
 War Corporate, scénario de Christian Vilà, dessins de Roberto De Angelis, Albin Michel
 Cocaïne, 2005
-Forteresse, 2007  (ISBN 978-2-226-17568-7)
-Nouvelles
-« Les Autres », in Chasseurs de fantasmes : anthologie, dirigé par Jeanne-A Debats et Michaël Fontayne, Éditions Griffe d'Encre, 2009
+Forteresse, 2007  (ISBN 978-2-226-17568-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Christian_Vilà</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Vil%C3%A0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Les Autres », in Chasseurs de fantasmes : anthologie, dirigé par Jeanne-A Debats et Michaël Fontayne, Éditions Griffe d'Encre, 2009
 « Les Ravageurs », in Vampires à contre-emploi : anthologie des 10e Rencontres de l'Imaginaire de Sèvres, dirigé par Jeanne-A Debats, Éditions Mnémos, 2013
 « SPLASH ! », in Dimension Trash, dirigé par Artikel Unbekannt et Julien Heylbroeck, Éditions Black coat press, coll. Rivière blanche, coll. Fusée, 2015
-« Éventration d'une grenouille », in Dimension Trash, dirigé par Artikel Unbekannt et Julien Heylbroeck, Éditions Black coat press, coll. Rivière blanche, coll. Fusée, 2015 (sous le pseudonyme de Kriss Vilà)
-Autres ouvrages
-William S. Burroughs, le génie empoisonné, Éditions du Rocher, 1992  (ISBN 2-26801-336-7)
+« Éventration d'une grenouille », in Dimension Trash, dirigé par Artikel Unbekannt et Julien Heylbroeck, Éditions Black coat press, coll. Rivière blanche, coll. Fusée, 2015 (sous le pseudonyme de Kriss Vilà)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Christian_Vilà</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Christian_Vil%C3%A0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>William S. Burroughs, le génie empoisonné, Éditions du Rocher, 1992  (ISBN 2-26801-336-7)
 Les Arts divinatoires, Hugo et Compagnie, 2011  (ISBN 2-75560-849-8)
 Les Secrets des plantes magiques, Hugo et Compagnie, 2010  (ISBN 2-75560-615-0)</t>
         </is>
